--- a/Data/Ozone/Ozone Data_altitude_corrected.xlsx
+++ b/Data/Ozone/Ozone Data_altitude_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1507529267757/WOPIServiceId_TP_BOX_2/WOPIUserId_19028455394/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{F8703F76-A67E-49DF-86F5-4430C40049BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FC0914-C156-40E9-BD38-9AA1F724F10B}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="8_{F8703F76-A67E-49DF-86F5-4430C40049BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766475A2-9010-4185-981C-ACCDAA77B08C}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="630" windowWidth="19180" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -198,10 +198,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="169">
   <si>
     <t>House.Number</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Visit</t>
@@ -623,22 +623,121 @@
   <si>
     <t>LOD ppm (Provo)</t>
   </si>
+  <si>
+    <t>https://marvin.byu.edu/Weather/cgi-bin/textsi24hr</t>
+  </si>
+  <si>
+    <t>Average barometric pressure ~ 84</t>
+  </si>
+  <si>
+    <t>https://www.weather.gov/wrh/timeseries?site=KPVU</t>
+  </si>
+  <si>
+    <t>https://www.weather.gov/media/epz/wxcalc/stationPressure.pdf</t>
+  </si>
+  <si>
+    <t>P station</t>
+  </si>
+  <si>
+    <t>inHG</t>
+  </si>
+  <si>
+    <t>Confirming calculations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Atmospheric_pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft </t>
+  </si>
+  <si>
+    <t>elevation of provo</t>
+  </si>
+  <si>
+    <t>Elevation of provo airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alligns well with pressure observed at the Provo airport (which is ~100 feet, or 31 meters lower than Provo). </t>
+  </si>
+  <si>
+    <t>300 feet variation in pressure</t>
+  </si>
+  <si>
+    <t>sensitivity elevation</t>
+  </si>
+  <si>
+    <t>Ps</t>
+  </si>
+  <si>
+    <t>change in pressure</t>
+  </si>
+  <si>
+    <t>max pressure Airport 4/27/24</t>
+  </si>
+  <si>
+    <t>min pressure Airport 4/27/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max temperature </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>diff with 25</t>
+  </si>
+  <si>
+    <t>Change in V/n</t>
+  </si>
+  <si>
+    <t>* is it worth the effort to incorporate into our analysis?</t>
+  </si>
+  <si>
+    <t>V/n @ 70F</t>
+  </si>
+  <si>
+    <t>V/n @ 100F</t>
+  </si>
+  <si>
+    <t>* ppm change could be different by ~6% due to not considering variation in temperature…</t>
+  </si>
+  <si>
+    <t>* problem is that to do it correctly, I would need hourly data when ozone is highest (12-6 pm?), which changes with each day</t>
+  </si>
+  <si>
+    <t>* another problem, missing TRH data, would require me to find historic temperature data….</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,6 +860,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -791,53 +896,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -846,98 +952,124 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5526,25 +5658,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76C2DC-0E3F-4E58-9A81-30FCE32B6D9D}">
-  <dimension ref="A1:AI94"/>
+  <dimension ref="A1:AU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:44">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5765,7 @@
       <c r="AH1" s="26"/>
       <c r="AI1" s="26"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:44">
       <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
@@ -5705,20 +5837,20 @@
         <v>0.04</v>
       </c>
       <c r="X2" s="47">
-        <f t="shared" ref="X2:X33" si="5">U2/(10^6)*(1/$AF$3)*$AF$23*(1/O2)*10^6</f>
+        <f t="shared" ref="X2:X33" si="5">U2/(10^6)*(1/$AF$3)*$AF$30*(1/O2)*10^6</f>
         <v>4.0146661913062931E-2</v>
       </c>
       <c r="Y2" s="47">
-        <f>U2/(10^6)*(1/$AF$3)*$AF$30*(1/O2)*10^6</f>
-        <v>4.7326109682037799E-2</v>
+        <f t="shared" ref="Y2:Y33" si="6">U2/(10^6)*(1/$AF$3)*$AF$37*(1/O2)*10^6</f>
+        <v>4.7451381686389599E-2</v>
       </c>
       <c r="Z2" s="47">
-        <f t="shared" ref="Z2:Z33" si="6">$AF$4/O2*10^6</f>
+        <f t="shared" ref="Z2:Z33" si="7">$AF$4/O2*10^6</f>
         <v>5.7352374161518489E-3</v>
       </c>
       <c r="AA2" s="47">
-        <f t="shared" ref="AA2:AA33" si="7">$AF$5/O2*10^6</f>
-        <v>6.7608728117196856E-3</v>
+        <f t="shared" ref="AA2:AA33" si="8">$AF$5/O2*10^6</f>
+        <v>6.7787688123413705E-3</v>
       </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="23"/>
@@ -5731,7 +5863,7 @@
       <c r="AH2" s="26"/>
       <c r="AI2" s="26"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:44">
       <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
@@ -5807,16 +5939,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y3" s="47" t="e">
-        <f t="shared" ref="Y3:Y66" si="8">U3/(10^6)*(1/$AF$3)*$AF$30*(1/O3)*10^6</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z3" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.677544665351076E-3</v>
       </c>
       <c r="AA3" s="47">
-        <f t="shared" si="7"/>
-        <v>6.6928628372374122E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.7105788157555153E-3</v>
       </c>
       <c r="AB3" s="22"/>
       <c r="AC3" s="23"/>
@@ -5833,8 +5965,14 @@
       </c>
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AQ3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
@@ -5912,16 +6050,16 @@
         <v>3.7592051917056842E-2</v>
       </c>
       <c r="Y4" s="47">
+        <f t="shared" si="6"/>
+        <v>4.443195819751148E-2</v>
+      </c>
+      <c r="Z4" s="47">
+        <f t="shared" si="7"/>
+        <v>6.0147283067290957E-3</v>
+      </c>
+      <c r="AA4" s="47">
         <f t="shared" si="8"/>
-        <v>4.4314657493867801E-2</v>
-      </c>
-      <c r="Z4" s="47">
-        <f t="shared" si="6"/>
-        <v>6.0147283067290957E-3</v>
-      </c>
-      <c r="AA4" s="47">
-        <f t="shared" si="7"/>
-        <v>7.0903451990188479E-3</v>
+        <v>7.1091133116018331E-3</v>
       </c>
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
@@ -5930,14 +6068,17 @@
         <v>130</v>
       </c>
       <c r="AF4" s="15">
-        <f>4*(1/10^6)*(1/$AF$3)*AF22*1000</f>
+        <f>4*(1/10^6)*(1/$AF$3)*AF29*1000</f>
         <v>2.0387437659346986E-6</v>
       </c>
       <c r="AG4" s="26"/>
       <c r="AH4" s="26"/>
       <c r="AI4" s="26"/>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AR4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
@@ -6015,16 +6156,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y5" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z5" s="47">
+        <f t="shared" si="7"/>
+        <v>5.9763703497078824E-3</v>
+      </c>
+      <c r="AA5" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z5" s="47">
-        <f t="shared" si="6"/>
-        <v>5.9763703497078824E-3</v>
-      </c>
-      <c r="AA5" s="47">
-        <f t="shared" si="7"/>
-        <v>7.045127669225314E-3</v>
+        <v>7.0637760912056471E-3</v>
       </c>
       <c r="AB5" s="23"/>
       <c r="AC5" s="23"/>
@@ -6033,14 +6174,14 @@
         <v>131</v>
       </c>
       <c r="AF5" s="15">
-        <f>4*(1/10^6)*(1/$AF$3)*AF29*1000</f>
-        <v>2.403333340369246E-6</v>
+        <f>4*(1/10^6)*(1/$AF$3)*AF36*1000</f>
+        <v>2.4096949531596549E-6</v>
       </c>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="26"/>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:44">
       <c r="A6" s="21" t="s">
         <v>31</v>
       </c>
@@ -6118,16 +6259,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y6" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z6" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7934350928197228E-3</v>
+      </c>
+      <c r="AA6" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7934350928197228E-3</v>
-      </c>
-      <c r="AA6" s="47">
-        <f t="shared" si="7"/>
-        <v>6.8294780082161699E-3</v>
+        <v>6.8475556064914915E-3</v>
       </c>
       <c r="AB6" s="23"/>
       <c r="AC6" s="23"/>
@@ -6138,7 +6279,7 @@
       <c r="AH6" s="15"/>
       <c r="AI6" s="26"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:44">
       <c r="A7" s="21" t="s">
         <v>31</v>
       </c>
@@ -6216,29 +6357,22 @@
         <v>3.2260733025503543E-2</v>
       </c>
       <c r="Y7" s="47">
+        <f t="shared" si="6"/>
+        <v>3.8130601233817292E-2</v>
+      </c>
+      <c r="Z7" s="47">
+        <f t="shared" si="7"/>
+        <v>5.8655878228188272E-3</v>
+      </c>
+      <c r="AA7" s="47">
         <f t="shared" si="8"/>
-        <v>3.8029936159926093E-2</v>
-      </c>
-      <c r="Z7" s="47">
-        <f t="shared" si="6"/>
-        <v>5.8655878228188272E-3</v>
-      </c>
-      <c r="AA7" s="47">
-        <f t="shared" si="7"/>
-        <v>6.9145338472592901E-3</v>
+        <v>6.9328365879667781E-3</v>
       </c>
       <c r="AB7" s="23"/>
       <c r="AC7" s="23"/>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:44">
       <c r="A8" s="21" t="s">
         <v>32</v>
       </c>
@@ -6314,35 +6448,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y8" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7046428661068809E-3</v>
+      </c>
+      <c r="AA8" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z8" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7046428661068809E-3</v>
-      </c>
-      <c r="AA8" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7248070228818433E-3</v>
+        <v>6.7426075575189679E-3</v>
       </c>
       <c r="AB8" s="23"/>
       <c r="AC8" s="24"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF8" s="26">
-        <v>101325</v>
-      </c>
-      <c r="AG8" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH8" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI8" s="26"/>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AE8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
       <c r="A9" s="21" t="s">
         <v>32</v>
       </c>
@@ -6418,35 +6541,31 @@
         <v>2.029313756536508E-2</v>
       </c>
       <c r="Y9" s="47">
+        <f t="shared" si="6"/>
+        <v>2.3985491454153216E-2</v>
+      </c>
+      <c r="Z9" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7980393043900241E-3</v>
+      </c>
+      <c r="AA9" s="47">
         <f t="shared" si="8"/>
-        <v>2.3922169576411422E-2</v>
-      </c>
-      <c r="Z9" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7980393043900241E-3</v>
-      </c>
-      <c r="AA9" s="47">
-        <f t="shared" si="7"/>
-        <v>6.8349055932604057E-3</v>
+        <v>6.852997558329489E-3</v>
       </c>
       <c r="AB9" s="23"/>
       <c r="AC9" s="23"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF9" s="26">
-        <v>1387</v>
-      </c>
-      <c r="AG9" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH9" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI9" s="26"/>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AD9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE9">
+        <f>$AF$42*((288-0.0065*AE11)/288)^5.2561</f>
+        <v>85726.914028045663</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="A10" s="21" t="s">
         <v>33</v>
       </c>
@@ -6522,35 +6641,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y10" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z10" s="47">
+        <f t="shared" si="7"/>
+        <v>5.9144747874025671E-3</v>
+      </c>
+      <c r="AA10" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z10" s="47">
-        <f t="shared" si="6"/>
-        <v>5.9144747874025671E-3</v>
-      </c>
-      <c r="AA10" s="47">
-        <f t="shared" si="7"/>
-        <v>6.9721632923404799E-3</v>
+        <v>6.9906185779358438E-3</v>
       </c>
       <c r="AB10" s="23"/>
       <c r="AC10" s="23"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF10" s="26">
-        <v>2.8969999999999999E-2</v>
-      </c>
-      <c r="AG10" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH10" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI10" s="26"/>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AD10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE10">
+        <f>AE9/3386</f>
+        <v>25.318049033681532</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
@@ -6626,35 +6741,35 @@
         <v>3.1314414221941062E-2</v>
       </c>
       <c r="Y11" s="47">
+        <f t="shared" si="6"/>
+        <v>3.7012098907469697E-2</v>
+      </c>
+      <c r="Z11" s="47">
+        <f t="shared" si="7"/>
+        <v>5.9646503279887752E-3</v>
+      </c>
+      <c r="AA11" s="47">
         <f t="shared" si="8"/>
-        <v>3.6914386688128027E-2</v>
-      </c>
-      <c r="Z11" s="47">
-        <f t="shared" si="6"/>
-        <v>5.9646503279887752E-3</v>
-      </c>
-      <c r="AA11" s="47">
-        <f t="shared" si="7"/>
-        <v>7.0313117501196254E-3</v>
+        <v>7.0499236014227992E-3</v>
       </c>
       <c r="AB11" s="15"/>
       <c r="AC11" s="23"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF11" s="26">
-        <v>288.16000000000003</v>
-      </c>
-      <c r="AG11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH11" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI11" s="26"/>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AD11" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" s="26">
+        <v>1387</v>
+      </c>
+      <c r="AF11" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH11" s="26"/>
+      <c r="AL11" s="26"/>
+    </row>
+    <row r="12" spans="1:44">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
@@ -6730,35 +6845,40 @@
         <v>4.7296810502724704E-2</v>
       </c>
       <c r="Y12" s="47">
+        <f t="shared" si="6"/>
+        <v>5.5902505981035987E-2</v>
+      </c>
+      <c r="Z12" s="47">
+        <f t="shared" si="7"/>
+        <v>5.9121013128405888E-3</v>
+      </c>
+      <c r="AA12" s="47">
         <f t="shared" si="8"/>
-        <v>5.5754922945017847E-2</v>
-      </c>
-      <c r="Z12" s="47">
-        <f t="shared" si="6"/>
-        <v>5.9121013128405888E-3</v>
-      </c>
-      <c r="AA12" s="47">
-        <f t="shared" si="7"/>
-        <v>6.9693653681272309E-3</v>
+        <v>6.9878132476294966E-3</v>
       </c>
       <c r="AB12" s="23"/>
       <c r="AC12" s="23"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF12" s="26">
-        <v>8.3144600000000004</v>
-      </c>
-      <c r="AG12" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH12" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI12" s="26"/>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AD12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12">
+        <f>AE11/0.3048</f>
+        <v>4550.524934383202</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM12">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
       <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
@@ -6834,35 +6954,33 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y13" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z13" s="47">
+        <f t="shared" si="7"/>
+        <v>5.0363417253960433E-3</v>
+      </c>
+      <c r="AA13" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z13" s="47">
-        <f t="shared" si="6"/>
-        <v>5.0363417253960433E-3</v>
-      </c>
-      <c r="AA13" s="47">
-        <f t="shared" si="7"/>
-        <v>5.936993252601208E-3</v>
+        <v>5.9527084476504802E-3</v>
       </c>
       <c r="AB13" s="23"/>
       <c r="AC13" s="23"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF13" s="26">
-        <v>9.81</v>
-      </c>
-      <c r="AG13" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI13" s="26"/>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AD13" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" s="26">
+        <v>101325</v>
+      </c>
+      <c r="AF13" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
       <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
@@ -6938,27 +7056,25 @@
         <v>3.2560072504540197E-2</v>
       </c>
       <c r="Y14" s="47">
+        <f t="shared" si="6"/>
+        <v>3.8484405789332564E-2</v>
+      </c>
+      <c r="Z14" s="47">
+        <f t="shared" si="7"/>
+        <v>5.6626213051374271E-3</v>
+      </c>
+      <c r="AA14" s="47">
         <f t="shared" si="8"/>
-        <v>3.8382806668755209E-2</v>
-      </c>
-      <c r="Z14" s="47">
-        <f t="shared" si="6"/>
-        <v>5.6626213051374271E-3</v>
-      </c>
-      <c r="AA14" s="47">
-        <f t="shared" si="7"/>
-        <v>6.6752707250009053E-3</v>
+        <v>6.6929401372752273E-3</v>
       </c>
       <c r="AB14" s="23"/>
       <c r="AC14" s="23"/>
-      <c r="AD14" s="26"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-    </row>
-    <row r="15" spans="1:35">
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="41"/>
+    </row>
+    <row r="15" spans="1:44">
       <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
@@ -7034,36 +7150,34 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y15" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7028769546372936E-3</v>
+      </c>
+      <c r="AA15" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z15" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7028769546372936E-3</v>
-      </c>
-      <c r="AA15" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7227253125747852E-3</v>
+        <v>6.7405203369338739E-3</v>
       </c>
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF15" s="42">
-        <f>AF8*EXP(-(AF13*AF9*AF10)/(AF11*AF12))</f>
-        <v>85953.832792747431</v>
-      </c>
-      <c r="AG15" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH15" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI15" s="26"/>
-    </row>
-    <row r="16" spans="1:35">
+      <c r="AD15" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" s="26">
+        <f>AE11+100</f>
+        <v>1487</v>
+      </c>
+      <c r="AF15" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
       <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
@@ -7139,27 +7253,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y16" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7619564941035969E-3</v>
+      </c>
+      <c r="AA16" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z16" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7619564941035969E-3</v>
-      </c>
-      <c r="AA16" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7923700758380726E-3</v>
+        <v>6.8103494495794633E-3</v>
       </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AD16" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE16" s="26">
+        <f>$AF$42*((288-0.0065*AE15)/288)^5.2561</f>
+        <v>84682.287799641068</v>
+      </c>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="41"/>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -7235,27 +7352,30 @@
         <v>2.323415385971201E-2</v>
       </c>
       <c r="Y17" s="47">
+        <f t="shared" si="6"/>
+        <v>2.7461628200743816E-2</v>
+      </c>
+      <c r="Z17" s="47">
+        <f t="shared" si="7"/>
+        <v>5.8085384649280035E-3</v>
+      </c>
+      <c r="AA17" s="47">
         <f t="shared" si="8"/>
-        <v>2.7389129295860338E-2</v>
-      </c>
-      <c r="Z17" s="47">
-        <f t="shared" si="6"/>
-        <v>5.8085384649280035E-3</v>
-      </c>
-      <c r="AA17" s="47">
-        <f t="shared" si="7"/>
-        <v>6.8472823239650845E-3</v>
+        <v>6.8654070501859531E-3</v>
       </c>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE17" s="57">
+        <f>(AE16-AE9)/AE9</f>
+        <v>-1.2185510702774679E-2</v>
+      </c>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="41"/>
+    </row>
+    <row r="18" spans="1:47">
       <c r="A18" s="21" t="s">
         <v>38</v>
       </c>
@@ -7331,29 +7451,29 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y18" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z18" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7073308862884021E-3</v>
+      </c>
+      <c r="AA18" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z18" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7073308862884021E-3</v>
-      </c>
-      <c r="AA18" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7279757430661934E-3</v>
+        <v>6.7457846652917205E-3</v>
       </c>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE18" s="54">
+        <v>25.32</v>
+      </c>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="41"/>
+    </row>
+    <row r="19" spans="1:47">
       <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
@@ -7429,33 +7549,29 @@
         <v>3.0370652162325939E-2</v>
       </c>
       <c r="Y19" s="47">
+        <f t="shared" si="6"/>
+        <v>3.5896618526836642E-2</v>
+      </c>
+      <c r="Z19" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7848861261573228E-3</v>
+      </c>
+      <c r="AA19" s="47">
         <f t="shared" si="8"/>
-        <v>3.580185118408509E-2</v>
-      </c>
-      <c r="Z19" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7848861261573228E-3</v>
-      </c>
-      <c r="AA19" s="47">
-        <f t="shared" si="7"/>
-        <v>6.819400225540017E-3</v>
+        <v>6.8374511479688833E-3</v>
       </c>
       <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF19" s="26">
-        <v>25</v>
-      </c>
-      <c r="AG19" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE19" s="26">
+        <v>25.15</v>
+      </c>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="41"/>
+    </row>
+    <row r="20" spans="1:47">
       <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
@@ -7531,35 +7647,28 @@
         <v>1.000976593629233E-2</v>
       </c>
       <c r="Y20" s="47">
+        <f t="shared" si="6"/>
+        <v>1.183105148475321E-2</v>
+      </c>
+      <c r="Z20" s="47">
+        <f t="shared" si="7"/>
+        <v>5.719866249309904E-3</v>
+      </c>
+      <c r="AA20" s="47">
         <f t="shared" si="8"/>
-        <v>1.1799817419897529E-2</v>
-      </c>
-      <c r="Z20" s="47">
-        <f t="shared" si="6"/>
-        <v>5.719866249309904E-3</v>
-      </c>
-      <c r="AA20" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7427528113700166E-3</v>
+        <v>6.7606008484304043E-3</v>
       </c>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF20" s="26">
-        <f>AF19+273.15</f>
-        <v>298.14999999999998</v>
-      </c>
-      <c r="AG20" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH20" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AC20" s="23"/>
+      <c r="AE20" s="59">
+        <f>(AE18-AE19)/AE18</f>
+        <v>6.7140600315956436E-3</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
       <c r="A21" s="21" t="s">
         <v>39</v>
       </c>
@@ -7635,33 +7744,27 @@
         <v>3.429827952072162E-2</v>
       </c>
       <c r="Y21" s="47">
+        <f t="shared" si="6"/>
+        <v>4.0538881071820437E-2</v>
+      </c>
+      <c r="Z21" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7163799201202714E-3</v>
+      </c>
+      <c r="AA21" s="47">
         <f t="shared" si="8"/>
-        <v>4.0431858121053481E-2</v>
-      </c>
-      <c r="Z21" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7163799201202714E-3</v>
-      </c>
-      <c r="AA21" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7386430201755798E-3</v>
+        <v>6.7564801786367378E-3</v>
       </c>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF21" s="45">
-        <v>8.3142999999999994</v>
-      </c>
-      <c r="AG21" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+    </row>
+    <row r="22" spans="1:47">
       <c r="A22" s="21" t="s">
         <v>40</v>
       </c>
@@ -7737,34 +7840,25 @@
         <v>3.8108689031750943E-2</v>
       </c>
       <c r="Y22" s="47">
+        <f t="shared" si="6"/>
+        <v>4.5042597880974866E-2</v>
+      </c>
+      <c r="Z22" s="47">
+        <f t="shared" si="7"/>
+        <v>5.6457317084075481E-3</v>
+      </c>
+      <c r="AA22" s="47">
         <f t="shared" si="8"/>
-        <v>4.4923685083976567E-2</v>
-      </c>
-      <c r="Z22" s="47">
-        <f t="shared" si="6"/>
-        <v>5.6457317084075481E-3</v>
-      </c>
-      <c r="AA22" s="47">
-        <f t="shared" si="7"/>
-        <v>6.6553607531817157E-3</v>
+        <v>6.6729774638481275E-3</v>
       </c>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF22">
-        <f>AF21*AF20/AF8</f>
-        <v>2.4464925191216381E-2</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AC22" s="23"/>
+      <c r="AD22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU22" s="26"/>
+    </row>
+    <row r="23" spans="1:47">
       <c r="A23" s="21" t="s">
         <v>40</v>
       </c>
@@ -7840,34 +7934,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y23" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z23" s="47">
+        <f t="shared" si="7"/>
+        <v>5.76814443347912E-3</v>
+      </c>
+      <c r="AA23" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z23" s="47">
-        <f t="shared" si="6"/>
-        <v>5.76814443347912E-3</v>
-      </c>
-      <c r="AA23" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7996646075285513E-3</v>
+        <v>6.8176632898632713E-3</v>
       </c>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF23">
-        <f>AF22*10^3</f>
-        <v>24.464925191216381</v>
-      </c>
-      <c r="AG23" s="49" t="s">
-        <v>137</v>
-      </c>
+      <c r="AC23" s="23"/>
+      <c r="AE23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:47">
       <c r="A24" s="21" t="s">
         <v>41</v>
       </c>
@@ -7943,27 +8030,40 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y24" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z24" s="47">
+        <f t="shared" si="7"/>
+        <v>5.3265366350867191E-3</v>
+      </c>
+      <c r="AA24" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z24" s="47">
-        <f t="shared" si="6"/>
-        <v>5.3265366350867191E-3</v>
-      </c>
-      <c r="AA24" s="47">
-        <f t="shared" si="7"/>
-        <v>6.2790838641427196E-3</v>
+        <v>6.2957045715374095E-3</v>
       </c>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AQ24" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR24" s="26">
+        <v>2.8969999999999999E-2</v>
+      </c>
+      <c r="AS24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT24" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU24" s="26"/>
+    </row>
+    <row r="25" spans="1:47">
       <c r="A25" s="21" t="s">
         <v>41</v>
       </c>
@@ -8039,29 +8139,42 @@
         <v>3.89725805372335E-2</v>
       </c>
       <c r="Y25" s="47">
+        <f t="shared" si="6"/>
+        <v>4.6063675191239224E-2</v>
+      </c>
+      <c r="Z25" s="47">
+        <f t="shared" si="7"/>
+        <v>5.3755283499632425E-3</v>
+      </c>
+      <c r="AA25" s="47">
         <f t="shared" si="8"/>
-        <v>4.5942066742466231E-2</v>
-      </c>
-      <c r="Z25" s="47">
-        <f t="shared" si="6"/>
-        <v>5.3755283499632425E-3</v>
-      </c>
-      <c r="AA25" s="47">
-        <f t="shared" si="7"/>
-        <v>6.3368367920643076E-3</v>
+        <v>6.3536103712054075E-3</v>
       </c>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
+      <c r="AC25" s="25"/>
       <c r="AD25" s="26"/>
       <c r="AE25" s="43" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AF25" s="26"/>
       <c r="AG25" s="26"/>
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AQ25" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR25" s="26">
+        <v>288.16000000000003</v>
+      </c>
+      <c r="AS25" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT25" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU25" s="26"/>
+    </row>
+    <row r="26" spans="1:47">
       <c r="A26" s="21" t="s">
         <v>42</v>
       </c>
@@ -8137,16 +8250,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y26" s="47" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7156407166850309E-3</v>
+      </c>
+      <c r="AA26" s="47">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z26" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7156407166850309E-3</v>
-      </c>
-      <c r="AA26" s="47">
-        <f t="shared" si="7"/>
-        <v>6.7377716246177308E-3</v>
+        <v>6.7556064764986764E-3</v>
       </c>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
@@ -8161,9 +8274,25 @@
         <v>122</v>
       </c>
       <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AI26" s="26">
+        <f>AF26*9/5+32</f>
+        <v>77</v>
+      </c>
+      <c r="AQ26" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR26" s="26">
+        <v>8.3144600000000004</v>
+      </c>
+      <c r="AS26" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT26" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU26" s="26"/>
+    </row>
+    <row r="27" spans="1:47">
       <c r="A27" s="21" t="s">
         <v>43</v>
       </c>
@@ -8239,16 +8368,16 @@
         <v>2.1131616114066464E-2</v>
       </c>
       <c r="Y27" s="47">
+        <f t="shared" si="6"/>
+        <v>2.4976531898223943E-2</v>
+      </c>
+      <c r="Z27" s="47">
+        <f t="shared" si="7"/>
+        <v>2.9147056709057195E-3</v>
+      </c>
+      <c r="AA27" s="47">
         <f t="shared" si="8"/>
-        <v>2.4910593666259993E-2</v>
-      </c>
-      <c r="Z27" s="47">
-        <f t="shared" si="6"/>
-        <v>2.9147056709057195E-3</v>
-      </c>
-      <c r="AA27" s="47">
-        <f t="shared" si="7"/>
-        <v>3.4359439539668958E-3</v>
+        <v>3.4450388825136469E-3</v>
       </c>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
@@ -8257,16 +8386,29 @@
         <v>121</v>
       </c>
       <c r="AF27" s="26">
-        <f>AF26+273.15</f>
         <v>298.14999999999998</v>
       </c>
       <c r="AG27" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AH27" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ27" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR27" s="26">
+        <v>9.81</v>
+      </c>
+      <c r="AS27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT27" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU27" s="26"/>
+    </row>
+    <row r="28" spans="1:47">
       <c r="A28" s="21" t="s">
         <v>42</v>
       </c>
@@ -8342,16 +8484,16 @@
         <v>3.7364674578235529E-2</v>
       </c>
       <c r="Y28" s="47">
+        <f t="shared" si="6"/>
+        <v>4.4163209355712121E-2</v>
+      </c>
+      <c r="Z28" s="47">
+        <f t="shared" si="7"/>
+        <v>5.7484114735746978E-3</v>
+      </c>
+      <c r="AA28" s="47">
         <f t="shared" si="8"/>
-        <v>4.4046618151031031E-2</v>
-      </c>
-      <c r="Z28" s="47">
-        <f t="shared" si="6"/>
-        <v>5.7484114735746978E-3</v>
-      </c>
-      <c r="AA28" s="47">
-        <f t="shared" si="7"/>
-        <v>6.776402792466313E-3</v>
+        <v>6.7943399008787873E-3</v>
       </c>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
@@ -8367,8 +8509,22 @@
       </c>
       <c r="AH28" s="26"/>
       <c r="AI28" s="26"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AQ28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR28" s="42">
+        <f>AE13*EXP(-(AR27*AE11*AR24)/(AR25*AR26))</f>
+        <v>85953.832792747431</v>
+      </c>
+      <c r="AS28" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT28" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU28" s="26"/>
+    </row>
+    <row r="29" spans="1:47">
       <c r="A29" s="21" t="s">
         <v>43</v>
       </c>
@@ -8444,16 +8600,16 @@
         <v>3.7622535022366621E-2</v>
       </c>
       <c r="Y29" s="47">
+        <f t="shared" si="6"/>
+        <v>4.4467987730132955E-2</v>
+      </c>
+      <c r="Z29" s="47">
+        <f t="shared" si="7"/>
+        <v>2.9507870605777744E-3</v>
+      </c>
+      <c r="AA29" s="47">
         <f t="shared" si="8"/>
-        <v>4.4350591908252329E-2</v>
-      </c>
-      <c r="Z29" s="47">
-        <f t="shared" si="6"/>
-        <v>2.9507870605777744E-3</v>
-      </c>
-      <c r="AA29" s="47">
-        <f t="shared" si="7"/>
-        <v>3.4784777967256726E-3</v>
+        <v>3.4876853121672902E-3</v>
       </c>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
@@ -8462,16 +8618,26 @@
         <v>125</v>
       </c>
       <c r="AF29">
-        <f>AF28*AF27/AF15</f>
-        <v>2.8840000084430953E-2</v>
+        <f>AF28*AF27/$AE$13</f>
+        <v>2.4464925191216381E-2</v>
       </c>
       <c r="AG29" t="s">
         <v>126</v>
       </c>
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AQ29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR29">
+        <f>AR28/3386</f>
+        <v>25.385065798212473</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
       <c r="A30" s="21" t="s">
         <v>45</v>
       </c>
@@ -8547,16 +8713,16 @@
         <v>2.0706508233680674E-2</v>
       </c>
       <c r="Y30" s="47">
+        <f t="shared" si="6"/>
+        <v>2.4474075272222003E-2</v>
+      </c>
+      <c r="Z30" s="47">
+        <f t="shared" si="7"/>
+        <v>2.9580726048115255E-3</v>
+      </c>
+      <c r="AA30" s="47">
         <f t="shared" si="8"/>
-        <v>2.4409463529527747E-2</v>
-      </c>
-      <c r="Z30" s="47">
-        <f t="shared" si="6"/>
-        <v>2.9580726048115255E-3</v>
-      </c>
-      <c r="AA30" s="47">
-        <f t="shared" si="7"/>
-        <v>3.4870662185039637E-3</v>
+        <v>3.4962964674602861E-3</v>
       </c>
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
@@ -8566,7 +8732,7 @@
       </c>
       <c r="AF30">
         <f>AF29*10^3</f>
-        <v>28.840000084430955</v>
+        <v>24.464925191216381</v>
       </c>
       <c r="AG30" s="49" t="s">
         <v>137</v>
@@ -8574,7 +8740,7 @@
       <c r="AH30" s="26"/>
       <c r="AI30" s="26"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:47">
       <c r="A31" s="21" t="s">
         <v>45</v>
       </c>
@@ -8650,26 +8816,30 @@
         <v>3.980902400129175E-2</v>
       </c>
       <c r="Y31" s="47">
+        <f t="shared" si="6"/>
+        <v>4.7052310265260133E-2</v>
+      </c>
+      <c r="Z31" s="47">
+        <f t="shared" si="7"/>
+        <v>2.8952017455484915E-3</v>
+      </c>
+      <c r="AA31" s="47">
         <f t="shared" si="8"/>
-        <v>4.692809181246E-2</v>
-      </c>
-      <c r="Z31" s="47">
-        <f t="shared" si="6"/>
-        <v>2.8952017455484915E-3</v>
-      </c>
-      <c r="AA31" s="47">
-        <f t="shared" si="7"/>
-        <v>3.4129521318152726E-3</v>
+        <v>3.4219862011098277E-3</v>
       </c>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="26"/>
-      <c r="AE31" s="48"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
       <c r="AH31" s="26"/>
       <c r="AI31" s="26"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AR31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
       <c r="A32" s="21" t="s">
         <v>46</v>
       </c>
@@ -8745,23 +8915,25 @@
         <v>2.5541199092962874E-2</v>
       </c>
       <c r="Y32" s="47">
+        <f t="shared" si="6"/>
+        <v>3.0188442304686348E-2</v>
+      </c>
+      <c r="Z32" s="47">
+        <f t="shared" si="7"/>
+        <v>2.9189941820529004E-3</v>
+      </c>
+      <c r="AA32" s="47">
         <f t="shared" si="8"/>
-        <v>3.0108744590070555E-2</v>
-      </c>
-      <c r="Z32" s="47">
-        <f t="shared" si="6"/>
-        <v>2.9189941820529004E-3</v>
-      </c>
-      <c r="AA32" s="47">
-        <f t="shared" si="7"/>
-        <v>3.4409993817223492E-3</v>
+        <v>3.4501076919641531E-3</v>
       </c>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="26"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
+      <c r="AE32" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
     </row>
@@ -8841,25 +9013,29 @@
         <v>3.9285917230161282E-2</v>
       </c>
       <c r="Y33" s="47">
+        <f t="shared" si="6"/>
+        <v>4.6434023765789804E-2</v>
+      </c>
+      <c r="Z33" s="47">
+        <f t="shared" si="7"/>
+        <v>2.9100679429749105E-3</v>
+      </c>
+      <c r="AA33" s="47">
         <f t="shared" si="8"/>
-        <v>4.6311437593996023E-2</v>
-      </c>
-      <c r="Z33" s="47">
-        <f t="shared" si="6"/>
-        <v>2.9100679429749105E-3</v>
-      </c>
-      <c r="AA33" s="47">
-        <f t="shared" si="7"/>
-        <v>3.4304768588145208E-3</v>
+        <v>3.4395573159844294E-3</v>
       </c>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="26"/>
       <c r="AE33" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
+        <v>121</v>
+      </c>
+      <c r="AF33" s="26">
+        <v>25</v>
+      </c>
+      <c r="AG33" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="AH33" s="26"/>
       <c r="AI33" s="26"/>
     </row>
@@ -8935,29 +9111,30 @@
         <v>48</v>
       </c>
       <c r="X34" s="47" t="e">
-        <f t="shared" ref="X34:X65" si="13">U34/(10^6)*(1/$AF$3)*$AF$23*(1/O34)*10^6</f>
+        <f t="shared" ref="X34:X65" si="13">U34/(10^6)*(1/$AF$3)*$AF$30*(1/O34)*10^6</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y34" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="Y34:Y65" si="14">U34/(10^6)*(1/$AF$3)*$AF$37*(1/O34)*10^6</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z34" s="47">
-        <f t="shared" ref="Z34:Z69" si="14">$AF$4/O34*10^6</f>
+        <f t="shared" ref="Z34:Z69" si="15">$AF$4/O34*10^6</f>
         <v>2.8173233498783438E-3</v>
       </c>
       <c r="AA34" s="47">
-        <f t="shared" ref="AA34:AA65" si="15">$AF$5/O34*10^6</f>
-        <v>3.3211467034255393E-3</v>
+        <f t="shared" ref="AA34:AA65" si="16">$AF$5/O34*10^6</f>
+        <v>3.3299377641545893E-3</v>
       </c>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
+      <c r="AC34" s="15"/>
       <c r="AD34" s="26"/>
       <c r="AE34" s="44" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="AF34" s="26">
-        <v>273.14999999999998</v>
+        <f>AF33+273.15</f>
+        <v>298.14999999999998</v>
       </c>
       <c r="AG34" s="44" t="s">
         <v>105</v>
@@ -9041,30 +9218,30 @@
         <v>3.2839321486625501E-2</v>
       </c>
       <c r="Y35" s="47">
-        <f t="shared" si="8"/>
-        <v>3.8711993886944976E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.8814464364642261E-2</v>
       </c>
       <c r="Z35" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.794835871202171E-3</v>
       </c>
       <c r="AA35" s="47">
-        <f t="shared" si="15"/>
-        <v>3.2946377776123391E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3033586693312559E-3</v>
       </c>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
+      <c r="AC35" s="15"/>
       <c r="AD35" s="26"/>
-      <c r="AE35" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF35" s="26">
-        <v>101325</v>
-      </c>
-      <c r="AG35" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH35" s="15"/>
+      <c r="AE35" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF35" s="45">
+        <v>8.3142999999999994</v>
+      </c>
+      <c r="AG35" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
     </row>
     <row r="36" spans="1:35">
@@ -9143,29 +9320,29 @@
         <v>1.0809024250144832E-2</v>
       </c>
       <c r="Y36" s="47">
-        <f t="shared" si="8"/>
-        <v>1.2742007500546706E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.2775735538405372E-2</v>
       </c>
       <c r="Z36" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8824064667052891E-3</v>
       </c>
       <c r="AA36" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3978686668124551E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4068628102414322E-3</v>
       </c>
       <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
+      <c r="AC36" s="15"/>
       <c r="AD36" s="26"/>
-      <c r="AE36" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF36" s="23">
-        <f>AF12*AF34/AF35*10^3</f>
-        <v>22.413962487046632</v>
-      </c>
-      <c r="AG36" s="44" t="s">
-        <v>135</v>
+      <c r="AE36" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF36">
+        <f>AF35*AF34/$AE$9</f>
+        <v>2.8916339437915866E-2</v>
+      </c>
+      <c r="AG36" s="52" t="s">
+        <v>126</v>
       </c>
       <c r="AH36" s="26"/>
       <c r="AI36" s="26"/>
@@ -9246,23 +9423,30 @@
         <v>2.686017250333831E-2</v>
       </c>
       <c r="Y37" s="47">
-        <f t="shared" si="8"/>
-        <v>3.1663590679697963E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.1747404065080156E-2</v>
       </c>
       <c r="Z37" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9038024327933316E-3</v>
       </c>
       <c r="AA37" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4230908842916713E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4321517908194763E-3</v>
       </c>
       <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
+      <c r="AC37" s="15"/>
       <c r="AD37" s="26"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
+      <c r="AE37" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF37">
+        <f>AF36*10^3</f>
+        <v>28.916339437915866</v>
+      </c>
+      <c r="AG37" s="53" t="s">
+        <v>137</v>
+      </c>
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
     </row>
@@ -9342,22 +9526,21 @@
         <v>3.4199155139450377E-2</v>
       </c>
       <c r="Y38" s="47">
-        <f t="shared" si="8"/>
-        <v>4.0315007276757492E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.0421720923853106E-2</v>
       </c>
       <c r="Z38" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9105663948468417E-3</v>
       </c>
       <c r="AA38" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4310644490857449E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4401464616045192E-3</v>
       </c>
       <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
+      <c r="AC38" s="15"/>
       <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
+      <c r="AE38" s="48"/>
       <c r="AG38" s="26"/>
       <c r="AH38" s="26"/>
       <c r="AI38" s="26"/>
@@ -9438,28 +9621,23 @@
         <v>2.4542450688287983E-2</v>
       </c>
       <c r="Y39" s="47">
-        <f t="shared" si="8"/>
-        <v>2.8931389505188036E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.9007970766068078E-2</v>
       </c>
       <c r="Z39" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8873471397985869E-3</v>
       </c>
       <c r="AA39" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4036928829632982E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.412702443066832E-3</v>
       </c>
       <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
+      <c r="AC39" s="15"/>
       <c r="AD39" s="26"/>
-      <c r="AE39" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF39" s="26">
-        <f>AF30/AF23</f>
-        <v>1.1788305036299622</v>
-      </c>
-      <c r="AG39" s="26"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
       <c r="AH39" s="26"/>
       <c r="AI39" s="26"/>
     </row>
@@ -9467,8 +9645,8 @@
       <c r="A40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>23</v>
+      <c r="B40" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>24</v>
@@ -9539,21 +9717,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y40" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z40" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8419260906754023E-3</v>
       </c>
       <c r="AA40" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3501491647500129E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3590169948667361E-3</v>
       </c>
       <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
+      <c r="AC40" s="15"/>
       <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
+      <c r="AE40" s="44" t="s">
+        <v>133</v>
+      </c>
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
       <c r="AH40" s="26"/>
@@ -9563,8 +9743,8 @@
       <c r="A41" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>23</v>
+      <c r="B41" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>24</v>
@@ -9635,23 +9815,29 @@
         <v>4.1403761811972806E-2</v>
       </c>
       <c r="Y41" s="47">
-        <f t="shared" si="8"/>
-        <v>4.8808017388982904E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.8937211996522678E-2</v>
       </c>
       <c r="Z41" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8070346991168008E-3</v>
       </c>
       <c r="AA41" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3090181280666371E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3177770845100115E-3</v>
       </c>
       <c r="AB41" s="26"/>
       <c r="AC41" s="26"/>
       <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
+      <c r="AE41" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF41" s="26">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="AG41" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AH41" s="26"/>
       <c r="AI41" s="26"/>
     </row>
@@ -9731,24 +9917,30 @@
         <v>4.0628689675151049E-2</v>
       </c>
       <c r="Y42" s="47">
-        <f t="shared" si="8"/>
-        <v>4.7894338711583752E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.8021114815679652E-2</v>
       </c>
       <c r="Z42" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8511361175544594E-3</v>
       </c>
       <c r="AA42" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3610062253742979E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3699027940827814E-3</v>
       </c>
       <c r="AB42" s="26"/>
       <c r="AC42" s="26"/>
       <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
+      <c r="AE42" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>101325</v>
+      </c>
+      <c r="AG42" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH42" s="15"/>
       <c r="AI42" s="26"/>
     </row>
     <row r="43" spans="1:35">
@@ -9827,23 +10019,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y43" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z43" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8212808203579584E-3</v>
       </c>
       <c r="AA43" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3258118903441241E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3346152998024459E-3</v>
       </c>
       <c r="AB43" s="26"/>
       <c r="AC43" s="26"/>
       <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
+      <c r="AE43" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF43" s="23">
+        <f>AR26*AF41/AF42*10^3</f>
+        <v>22.413962487046632</v>
+      </c>
+      <c r="AG43" s="44" t="s">
+        <v>135</v>
+      </c>
       <c r="AH43" s="26"/>
       <c r="AI43" s="26"/>
     </row>
@@ -9923,23 +10122,23 @@
         <v>2.8024088528769035E-2</v>
       </c>
       <c r="Y44" s="47">
-        <f t="shared" si="8"/>
-        <v>3.3035650394139443E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.3123095615556201E-2</v>
       </c>
       <c r="Z44" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8742654901301582E-3</v>
       </c>
       <c r="AA44" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3882718352963533E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3972405759544817E-3</v>
       </c>
       <c r="AB44" s="26"/>
       <c r="AC44" s="26"/>
       <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
       <c r="AH44" s="26"/>
       <c r="AI44" s="26"/>
     </row>
@@ -10019,16 +10218,16 @@
         <v>1.5084749450080504E-2</v>
       </c>
       <c r="Y45" s="47">
-        <f t="shared" si="8"/>
-        <v>1.7782362791370198E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.7829432627533622E-2</v>
       </c>
       <c r="Z45" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8732856095391446E-3</v>
       </c>
       <c r="AA45" s="47">
-        <f t="shared" si="15"/>
-        <v>3.387116722165752E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3960824052444993E-3</v>
       </c>
       <c r="AB45" s="26"/>
       <c r="AC45" s="26"/>
@@ -10115,22 +10314,27 @@
         <v>2.4179566057595182E-2</v>
       </c>
       <c r="Y46" s="47">
-        <f t="shared" si="8"/>
-        <v>2.850361003322887E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.857905896372653E-2</v>
       </c>
       <c r="Z46" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8446548303053165E-3</v>
       </c>
       <c r="AA46" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3533658862622199E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.3622422310266497E-3</v>
       </c>
       <c r="AB46" s="26"/>
       <c r="AC46" s="26"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
+      <c r="AE46" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF46" s="26">
+        <f>AF37/AF30</f>
+        <v>1.1819508627926512</v>
+      </c>
       <c r="AG46" s="26"/>
       <c r="AH46" s="26"/>
       <c r="AI46" s="26"/>
@@ -10211,16 +10415,16 @@
         <v>3.2567053521626727E-2</v>
       </c>
       <c r="Y47" s="47">
-        <f t="shared" si="8"/>
-        <v>3.8391036104643173E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.8492657008501158E-2</v>
       </c>
       <c r="Z47" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8319176975327596E-3</v>
       </c>
       <c r="AA47" s="47">
-        <f t="shared" si="15"/>
-        <v>3.3383509656211455E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.347187565956622E-3</v>
       </c>
       <c r="AB47" s="26"/>
       <c r="AC47" s="26"/>
@@ -10307,16 +10511,16 @@
         <v>3.0524148441682799E-2</v>
       </c>
       <c r="Y48" s="47">
-        <f t="shared" si="8"/>
-        <v>3.5982797280384664E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.6078043586657942E-2</v>
       </c>
       <c r="Z48" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0524148441682807E-3</v>
       </c>
       <c r="AA48" s="47">
-        <f t="shared" si="15"/>
-        <v>3.5982797280384666E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6078043586657937E-3</v>
       </c>
       <c r="AB48" s="26"/>
       <c r="AC48" s="26"/>
@@ -10403,23 +10607,27 @@
         <v>2.236967581431696E-2</v>
       </c>
       <c r="Y49" s="47">
-        <f t="shared" si="8"/>
-        <v>2.6370056206230248E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.643985762912383E-2</v>
       </c>
       <c r="Z49" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9826234419089289E-3</v>
       </c>
       <c r="AA49" s="47">
-        <f t="shared" si="15"/>
-        <v>3.5160074941640329E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5253143505498438E-3</v>
       </c>
       <c r="AB49" s="26"/>
       <c r="AC49" s="26"/>
       <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
+      <c r="AE49" s="54" t="s">
+        <v>160</v>
+      </c>
       <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
+      <c r="AG49" s="54" t="s">
+        <v>161</v>
+      </c>
       <c r="AH49" s="26"/>
       <c r="AI49" s="26"/>
     </row>
@@ -10499,25 +10707,37 @@
         <v>1.9128176257427038E-2</v>
       </c>
       <c r="Y50" s="47">
-        <f t="shared" si="8"/>
-        <v>2.2548877651065401E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.2608564431115797E-2</v>
       </c>
       <c r="Z50" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9427963472964682E-3</v>
       </c>
       <c r="AA50" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4690581001639077E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4782406817101216E-3</v>
       </c>
       <c r="AB50" s="26"/>
       <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
+      <c r="AD50" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE50" s="55">
+        <v>100</v>
+      </c>
+      <c r="AF50" s="26">
+        <f>(AE50-32)*(5/9)</f>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="AG50" s="26">
+        <f>25-AF50</f>
+        <v>-12.777777777777779</v>
+      </c>
       <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
+      <c r="AI50" s="54" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="21" t="s">
@@ -10595,25 +10815,32 @@
         <v>2.9343416090072454E-2</v>
       </c>
       <c r="Y51" s="47">
-        <f t="shared" si="8"/>
-        <v>3.4590913967683649E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.4682475964944899E-2</v>
       </c>
       <c r="Z51" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.00958113744333E-3</v>
       </c>
       <c r="AA51" s="47">
-        <f t="shared" si="15"/>
-        <v>3.5477860479675542E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5571770220456304E-3</v>
       </c>
       <c r="AB51" s="26"/>
       <c r="AC51" s="26"/>
       <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
+      <c r="AE51" s="44">
+        <v>70</v>
+      </c>
+      <c r="AF51" s="26">
+        <f>(AE51-32)*(5/9)</f>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="AG51" s="26">
+        <f>25-AF51</f>
+        <v>3.8888888888888893</v>
+      </c>
       <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="21" t="s">
@@ -10691,23 +10918,23 @@
         <v>1.8310813717607007E-2</v>
       </c>
       <c r="Y52" s="47">
-        <f t="shared" si="8"/>
-        <v>2.158534575660109E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.1642482071961119E-2</v>
       </c>
       <c r="Z52" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9297301948171223E-3</v>
       </c>
       <c r="AA52" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4536553210561742E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4627971315137778E-3</v>
       </c>
       <c r="AB52" s="26"/>
       <c r="AC52" s="26"/>
       <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="45"/>
       <c r="AH52" s="26"/>
       <c r="AI52" s="26"/>
     </row>
@@ -10787,21 +11014,23 @@
         <v>2.467639818650149E-2</v>
       </c>
       <c r="Y53" s="47">
-        <f t="shared" si="8"/>
-        <v>2.9089290901967033E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.9166290127150447E-2</v>
       </c>
       <c r="Z53" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9910785680607871E-3</v>
       </c>
       <c r="AA53" s="47">
-        <f t="shared" si="15"/>
-        <v>3.5259746547838832E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5353078942000535E-3</v>
       </c>
       <c r="AB53" s="26"/>
       <c r="AC53" s="26"/>
       <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
+      <c r="AE53" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="AF53" s="26"/>
       <c r="AG53" s="26"/>
       <c r="AH53" s="26"/>
@@ -10883,23 +11112,30 @@
         <v>1.8479478302795543E-2</v>
       </c>
       <c r="Y54" s="47">
-        <f t="shared" si="8"/>
-        <v>2.1784172714503426E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.1841835323947265E-2</v>
       </c>
       <c r="Z54" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9567165284472867E-3</v>
       </c>
       <c r="AA54" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4854676343205474E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4946936518315615E-3</v>
       </c>
       <c r="AB54" s="26"/>
       <c r="AC54" s="26"/>
       <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
+      <c r="AE54" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF54" s="26">
+        <f>AF51</f>
+        <v>21.111111111111111</v>
+      </c>
+      <c r="AG54" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="AH54" s="26"/>
       <c r="AI54" s="26"/>
     </row>
@@ -10979,23 +11215,30 @@
         <v>3.0929281322732555E-2</v>
       </c>
       <c r="Y55" s="47">
-        <f t="shared" si="8"/>
-        <v>3.6460380278589596E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.6556890744960373E-2</v>
       </c>
       <c r="Z55" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0174908607543964E-3</v>
       </c>
       <c r="AA55" s="47">
-        <f t="shared" si="15"/>
-        <v>3.5571102710819122E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.566525926337597E-3</v>
       </c>
       <c r="AB55" s="26"/>
       <c r="AC55" s="26"/>
       <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="26"/>
-      <c r="AG55" s="26"/>
+      <c r="AE55" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF55" s="26">
+        <f>AF54+273.15</f>
+        <v>294.26111111111106</v>
+      </c>
+      <c r="AG55" s="44" t="s">
+        <v>105</v>
+      </c>
       <c r="AH55" s="26"/>
       <c r="AI55" s="26"/>
     </row>
@@ -11046,23 +11289,29 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y56" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z56" s="47" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA56" s="47" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB56" s="26"/>
       <c r="AC56" s="26"/>
       <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
+      <c r="AE56" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF56" s="45">
+        <v>8.3142999999999994</v>
+      </c>
+      <c r="AG56" s="52" t="s">
+        <v>124</v>
+      </c>
       <c r="AH56" s="26"/>
       <c r="AI56" s="26"/>
     </row>
@@ -11113,23 +11362,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y57" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z57" s="47" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA57" s="47" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB57" s="26"/>
       <c r="AC57" s="26"/>
       <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
+      <c r="AE57" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF57">
+        <f>AF56*AF55/$AE$9</f>
+        <v>2.8539172135727535E-2</v>
+      </c>
+      <c r="AG57" s="52" t="s">
+        <v>126</v>
+      </c>
       <c r="AH57" s="26"/>
       <c r="AI57" s="26"/>
     </row>
@@ -11159,7 +11415,7 @@
         <v>0.50366999999999995</v>
       </c>
       <c r="I58" s="26" t="str">
-        <f t="shared" ref="I58:I85" si="16">IF(ABS(H58-0.5)&lt;=0.005, "PASS", "FAIL")</f>
+        <f t="shared" ref="I58:I85" si="17">IF(ABS(H58-0.5)&lt;=0.005, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="J58" s="30">
@@ -11169,19 +11425,19 @@
         <v>0.48875999999999997</v>
       </c>
       <c r="L58" s="31">
-        <f t="shared" ref="L58:L85" si="17">ABS(K58-H58)/H58</f>
+        <f t="shared" ref="L58:L85" si="18">ABS(K58-H58)/H58</f>
         <v>2.9602716064089544E-2</v>
       </c>
       <c r="M58" s="26" t="str">
-        <f t="shared" ref="M58:M85" si="18">IF(((ABS(K58-H58)/H58))&lt;=0.05, "PASS", "FAIL")</f>
+        <f t="shared" ref="M58:M85" si="19">IF(((ABS(K58-H58)/H58))&lt;=0.05, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="N58" s="29">
-        <f t="shared" ref="N58:N85" si="19">AVERAGE(H58,K58)</f>
+        <f t="shared" ref="N58:N85" si="20">AVERAGE(H58,K58)</f>
         <v>0.49621499999999996</v>
       </c>
       <c r="O58" s="29">
-        <f t="shared" ref="O58:O85" si="20">J58*N58</f>
+        <f t="shared" ref="O58:O85" si="21">J58*N58</f>
         <v>706.78383524999992</v>
       </c>
       <c r="P58" s="26"/>
@@ -11209,23 +11465,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y58" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z58" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8845364936983379E-3</v>
       </c>
       <c r="AA58" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4003796076054163E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4093803974836381E-3</v>
       </c>
       <c r="AB58" s="26"/>
       <c r="AC58" s="26"/>
       <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="26"/>
+      <c r="AE58" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF58">
+        <f>AF57*10^3</f>
+        <v>28.539172135727537</v>
+      </c>
+      <c r="AG58" s="53" t="s">
+        <v>137</v>
+      </c>
       <c r="AH58" s="26"/>
       <c r="AI58" s="26"/>
     </row>
@@ -11255,7 +11518,7 @@
         <v>0.50190999999999997</v>
       </c>
       <c r="I59" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J59" s="30">
@@ -11265,19 +11528,19 @@
         <v>0.46618999999999999</v>
       </c>
       <c r="L59" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.1168137713932725E-2</v>
       </c>
       <c r="M59" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>FAIL</v>
       </c>
       <c r="N59" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48404999999999998</v>
       </c>
       <c r="O59" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>688.69665899999995</v>
       </c>
       <c r="P59" s="26"/>
@@ -11305,16 +11568,16 @@
         <v>3.3303294080253926E-2</v>
       </c>
       <c r="Y59" s="47">
-        <f t="shared" si="8"/>
-        <v>3.9258938933162471E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.9362857171993525E-2</v>
       </c>
       <c r="Z59" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.960292807133683E-3</v>
       </c>
       <c r="AA59" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4896834607255531E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4989206375105344E-3</v>
       </c>
       <c r="AB59" s="26"/>
       <c r="AC59" s="26"/>
@@ -11351,7 +11614,7 @@
         <v>0.50334000000000001</v>
       </c>
       <c r="I60" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J60" s="30">
@@ -11361,19 +11624,19 @@
         <v>0.49003000000000002</v>
       </c>
       <c r="L60" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6443358366114333E-2</v>
       </c>
       <c r="M60" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N60" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49668500000000004</v>
       </c>
       <c r="O60" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>703.32086055000002</v>
       </c>
       <c r="P60" s="26"/>
@@ -11401,22 +11664,26 @@
         <v>#VALUE!</v>
       </c>
       <c r="Y60" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z60" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8987392245701229E-3</v>
       </c>
       <c r="AA60" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4171222199919234E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4261673274915559E-3</v>
       </c>
       <c r="AB60" s="26"/>
       <c r="AC60" s="26"/>
       <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
+      <c r="AE60" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF60">
+        <v>28.539172135727537</v>
+      </c>
       <c r="AG60" s="26"/>
       <c r="AH60" s="26"/>
       <c r="AI60" s="26"/>
@@ -11447,7 +11714,7 @@
         <v>0.50275999999999998</v>
       </c>
       <c r="I61" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J61" s="30">
@@ -11457,19 +11724,19 @@
         <v>0.48501</v>
       </c>
       <c r="L61" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5305115760999262E-2</v>
       </c>
       <c r="M61" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N61" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49388500000000002</v>
       </c>
       <c r="O61" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>698.60033250000004</v>
       </c>
       <c r="P61" s="26"/>
@@ -11497,22 +11764,26 @@
         <v>2.7724100426733816E-2</v>
       </c>
       <c r="Y61" s="47">
-        <f t="shared" si="8"/>
-        <v>3.2682015268734273E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.2768524419528142E-2</v>
       </c>
       <c r="Z61" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9183263607088228E-3</v>
       </c>
       <c r="AA61" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4402121335509752E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4493183599503294E-3</v>
       </c>
       <c r="AB61" s="26"/>
       <c r="AC61" s="26"/>
       <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
+      <c r="AE61" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF61">
+        <v>30.177155848088283</v>
+      </c>
       <c r="AG61" s="26"/>
       <c r="AH61" s="26"/>
       <c r="AI61" s="26"/>
@@ -11543,7 +11814,7 @@
         <v>0.50219000000000003</v>
       </c>
       <c r="I62" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J62" s="30">
@@ -11553,19 +11824,19 @@
         <v>0.47887000000000002</v>
       </c>
       <c r="L62" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.6436607658455975E-2</v>
       </c>
       <c r="M62" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N62" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49053000000000002</v>
       </c>
       <c r="O62" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>699.98140469999998</v>
       </c>
       <c r="P62" s="26"/>
@@ -11593,22 +11864,27 @@
         <v>1.601912656157856E-2</v>
       </c>
       <c r="Y62" s="47">
-        <f t="shared" si="8"/>
-        <v>1.8883835032297756E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8933820460642452E-2</v>
       </c>
       <c r="Z62" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9125684657415568E-3</v>
       </c>
       <c r="AA62" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4334245513268648E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4425128110258997E-3</v>
       </c>
       <c r="AB62" s="26"/>
       <c r="AC62" s="26"/>
       <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
+      <c r="AE62" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF62" s="56">
+        <f>(AF61-AF60)/AF60</f>
+        <v>5.7394226593916936E-2</v>
+      </c>
       <c r="AG62" s="26"/>
       <c r="AH62" s="26"/>
       <c r="AI62" s="26"/>
@@ -11639,7 +11915,7 @@
         <v>0.50175999999999998</v>
       </c>
       <c r="I63" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J63" s="30">
@@ -11649,19 +11925,19 @@
         <v>0.48215999999999998</v>
       </c>
       <c r="L63" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9062500000000014E-2</v>
       </c>
       <c r="M63" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N63" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49195999999999995</v>
       </c>
       <c r="O63" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>700.18206999999995</v>
       </c>
       <c r="P63" s="26"/>
@@ -11689,22 +11965,23 @@
         <v>3.057320439855641E-2</v>
       </c>
       <c r="Y63" s="47">
-        <f t="shared" si="8"/>
-        <v>3.6040625938732022E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.6136025317209823E-2</v>
       </c>
       <c r="Z63" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9117337522434682E-3</v>
       </c>
       <c r="AA63" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4324405655935266E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4415262206866494E-3</v>
       </c>
       <c r="AB63" s="26"/>
       <c r="AC63" s="26"/>
-      <c r="AD63" s="26"/>
       <c r="AE63" s="26"/>
-      <c r="AF63" s="26"/>
+      <c r="AF63" s="55" t="s">
+        <v>166</v>
+      </c>
       <c r="AG63" s="26"/>
       <c r="AH63" s="26"/>
       <c r="AI63" s="26"/>
@@ -11735,7 +12012,7 @@
         <v>0.49952000000000002</v>
       </c>
       <c r="I64" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J64" s="30">
@@ -11745,19 +12022,19 @@
         <v>0.45418999999999998</v>
       </c>
       <c r="L64" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.0747117232543306E-2</v>
       </c>
       <c r="M64" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>FAIL</v>
       </c>
       <c r="N64" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.47685500000000003</v>
       </c>
       <c r="O64" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>679.88078480000001</v>
       </c>
       <c r="P64" s="26"/>
@@ -11785,22 +12062,24 @@
         <v>2.5488765674621449E-2</v>
       </c>
       <c r="Y64" s="47">
-        <f t="shared" si="8"/>
-        <v>3.0046934477120098E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.012646858063853E-2</v>
       </c>
       <c r="Z64" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.998678314661348E-3</v>
       </c>
       <c r="AA64" s="47">
-        <f t="shared" si="15"/>
-        <v>3.5349334678964821E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5442904212515921E-3</v>
       </c>
       <c r="AB64" s="26"/>
       <c r="AC64" s="26"/>
       <c r="AD64" s="26"/>
       <c r="AE64" s="26"/>
-      <c r="AF64" s="26"/>
+      <c r="AF64" s="55" t="s">
+        <v>163</v>
+      </c>
       <c r="AG64" s="26"/>
       <c r="AH64" s="26"/>
       <c r="AI64" s="26"/>
@@ -11831,7 +12110,7 @@
         <v>0.50431999999999999</v>
       </c>
       <c r="I65" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J65" s="30">
@@ -11841,19 +12120,19 @@
         <v>0.47359000000000001</v>
       </c>
       <c r="L65" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.0933534263959352E-2</v>
       </c>
       <c r="M65" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>FAIL</v>
       </c>
       <c r="N65" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48895500000000003</v>
       </c>
       <c r="O65" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>698.43799065000007</v>
       </c>
       <c r="P65" s="26"/>
@@ -11881,22 +12160,24 @@
         <v>1.8243779272707383E-2</v>
       </c>
       <c r="Y65" s="47">
-        <f t="shared" si="8"/>
-        <v>2.1506323508159512E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.1563250651975178E-2</v>
       </c>
       <c r="Z65" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9190046836331815E-3</v>
       </c>
       <c r="AA65" s="47">
-        <f t="shared" si="15"/>
-        <v>3.4410117613055211E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4501201043160277E-3</v>
       </c>
       <c r="AB65" s="26"/>
       <c r="AC65" s="26"/>
       <c r="AD65" s="26"/>
       <c r="AE65" s="26"/>
-      <c r="AF65" s="26"/>
+      <c r="AF65" s="55" t="s">
+        <v>167</v>
+      </c>
       <c r="AG65" s="26"/>
       <c r="AH65" s="26"/>
       <c r="AI65" s="26"/>
@@ -11927,7 +12208,7 @@
         <v>0.50363000000000002</v>
       </c>
       <c r="I66" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J66" s="14">
@@ -11937,19 +12218,19 @@
         <v>0.48354000000000003</v>
       </c>
       <c r="L66" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9890395727021813E-2</v>
       </c>
       <c r="M66" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N66" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49358500000000005</v>
       </c>
       <c r="O66" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>695.24408760000006</v>
       </c>
       <c r="P66" s="8"/>
@@ -11973,26 +12254,28 @@
         <v>60</v>
       </c>
       <c r="X66" s="47" t="e">
-        <f t="shared" ref="X66:X90" si="21">U66/(10^6)*(1/$AF$3)*$AF$23*(1/O66)*10^6</f>
+        <f t="shared" ref="X66:X94" si="22">U66/(10^6)*(1/$AF$3)*$AF$30*(1/O66)*10^6</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y66" s="47" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="Y66:Y94" si="23">U66/(10^6)*(1/$AF$3)*$AF$37*(1/O66)*10^6</f>
         <v>#VALUE!</v>
       </c>
       <c r="Z66" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9324143884092461E-3</v>
       </c>
       <c r="AA66" s="47">
-        <f t="shared" ref="AA66:AA71" si="22">$AF$5/O66*10^6</f>
-        <v>3.4568195303402182E-3</v>
+        <f t="shared" ref="AA66:AA71" si="24">$AF$5/O66*10^6</f>
+        <v>3.4659697164458915E-3</v>
       </c>
       <c r="AB66" s="26"/>
       <c r="AC66" s="26"/>
       <c r="AD66" s="26"/>
       <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
+      <c r="AF66" s="55" t="s">
+        <v>168</v>
+      </c>
       <c r="AG66" s="26"/>
       <c r="AH66" s="26"/>
       <c r="AI66" s="26"/>
@@ -12023,7 +12306,7 @@
         <v>0.50065999999999999</v>
       </c>
       <c r="I67" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J67" s="30">
@@ -12033,19 +12316,19 @@
         <v>0.47434999999999999</v>
       </c>
       <c r="L67" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.2550633164223225E-2</v>
       </c>
       <c r="M67" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>FAIL</v>
       </c>
       <c r="N67" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48750499999999997</v>
       </c>
       <c r="O67" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>686.59229189999996</v>
       </c>
       <c r="P67" s="26"/>
@@ -12069,20 +12352,20 @@
         <v>1.9E-2</v>
       </c>
       <c r="X67" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.930087860716273E-2</v>
       </c>
       <c r="Y67" s="47">
-        <f t="shared" ref="Y67:Y94" si="23">U67/(10^6)*(1/$AF$3)*$AF$30*(1/O67)*10^6</f>
-        <v>2.2752464448982407E-2</v>
+        <f t="shared" si="23"/>
+        <v>2.2812690122392214E-2</v>
       </c>
       <c r="Z67" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9693659395634976E-3</v>
       </c>
       <c r="AA67" s="47">
-        <f t="shared" si="22"/>
-        <v>3.5003791459972929E-3</v>
+        <f t="shared" si="24"/>
+        <v>3.5096446342141856E-3</v>
       </c>
       <c r="AB67" s="26"/>
       <c r="AC67" s="26"/>
@@ -12119,7 +12402,7 @@
         <v>0.50466999999999995</v>
       </c>
       <c r="I68" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J68" s="30">
@@ -12129,19 +12412,19 @@
         <v>0.48361999999999999</v>
       </c>
       <c r="L68" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.1710424633919115E-2</v>
       </c>
       <c r="M68" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N68" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49414499999999995</v>
       </c>
       <c r="O68" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>712.35449054999992</v>
       </c>
       <c r="P68" s="26"/>
@@ -12165,7 +12448,7 @@
         <v>60</v>
       </c>
       <c r="X68" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y68" s="47" t="e">
@@ -12173,12 +12456,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z68" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8619792434530877E-3</v>
       </c>
       <c r="AA68" s="47">
-        <f t="shared" si="22"/>
-        <v>3.3737884329383011E-3</v>
+        <f t="shared" si="24"/>
+        <v>3.382718836094035E-3</v>
       </c>
       <c r="AB68" s="26"/>
       <c r="AC68" s="26"/>
@@ -12215,7 +12498,7 @@
         <v>0.50385999999999997</v>
       </c>
       <c r="I69" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J69" s="30">
@@ -12225,19 +12508,19 @@
         <v>0.46797</v>
       </c>
       <c r="L69" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.123010360020636E-2</v>
       </c>
       <c r="M69" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>FAIL</v>
       </c>
       <c r="N69" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48591499999999999</v>
       </c>
       <c r="O69" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>697.22971519999999</v>
       </c>
       <c r="P69" s="26"/>
@@ -12261,20 +12544,20 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="X69" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.2895711222213492E-2</v>
       </c>
       <c r="Y69" s="47">
         <f t="shared" si="23"/>
-        <v>3.8778467827347729E-2</v>
+        <v>3.8881114261273136E-2</v>
       </c>
       <c r="Z69" s="47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9240632197523107E-3</v>
       </c>
       <c r="AA69" s="47">
-        <f t="shared" si="22"/>
-        <v>3.4469749179864648E-3</v>
+        <f t="shared" si="24"/>
+        <v>3.4560990454465001E-3</v>
       </c>
       <c r="AB69" s="26"/>
       <c r="AC69" s="26"/>
@@ -12311,7 +12594,7 @@
         <v>0.50329000000000002</v>
       </c>
       <c r="I70" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J70" s="30">
@@ -12321,19 +12604,19 @@
         <v>0.49878</v>
       </c>
       <c r="L70" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.9610363806155776E-3</v>
       </c>
       <c r="M70" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N70" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50103500000000001</v>
       </c>
       <c r="O70" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>702.83686695000006</v>
       </c>
       <c r="P70" s="26"/>
@@ -12357,7 +12640,7 @@
         <v>60</v>
       </c>
       <c r="X70" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y70" s="47" t="e">
@@ -12365,12 +12648,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z70" s="47">
-        <f t="shared" ref="Z70:Z92" si="24">AF72/O70*10^6</f>
+        <f t="shared" ref="Z70:Z94" si="25">AF78/O70*10^6</f>
         <v>0</v>
       </c>
       <c r="AA70" s="47">
-        <f t="shared" si="22"/>
-        <v>3.4194753482392659E-3</v>
+        <f t="shared" si="24"/>
+        <v>3.4285266844590284E-3</v>
       </c>
       <c r="AB70" s="26"/>
       <c r="AC70" s="26"/>
@@ -12407,7 +12690,7 @@
         <v>0.50302999999999998</v>
       </c>
       <c r="I71" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J71" s="30">
@@ -12417,19 +12700,19 @@
         <v>0.48654599999999998</v>
       </c>
       <c r="L71" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2769417330974292E-2</v>
       </c>
       <c r="M71" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N71" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49478800000000001</v>
       </c>
       <c r="O71" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>695.64718860000005</v>
       </c>
       <c r="P71" s="26"/>
@@ -12453,20 +12736,20 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="X71" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.1505188036345361E-2</v>
       </c>
       <c r="Y71" s="47">
         <f t="shared" si="23"/>
-        <v>3.7139276679841661E-2</v>
+        <v>3.7237584182003104E-2</v>
       </c>
       <c r="Z71" s="47">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="47">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="47">
-        <f t="shared" si="22"/>
-        <v>3.454816435334108E-3</v>
+        <v>3.4639613192561027E-3</v>
       </c>
       <c r="AB71" s="26"/>
       <c r="AC71" s="26"/>
@@ -12503,7 +12786,7 @@
         <v>0.50395999999999996</v>
       </c>
       <c r="I72" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J72" s="15">
@@ -12513,19 +12796,19 @@
         <v>0.48986800000000003</v>
       </c>
       <c r="L72" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.796253670926252E-2</v>
       </c>
       <c r="M72" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N72" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49691399999999997</v>
       </c>
       <c r="O72" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>704.26130477999993</v>
       </c>
       <c r="P72" s="15"/>
@@ -12549,7 +12832,7 @@
         <v>60</v>
       </c>
       <c r="X72" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y72" s="47" t="e">
@@ -12557,12 +12840,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z72" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA72" s="47">
-        <f t="shared" ref="AA72:AA94" si="25">$AF$5/O72*10^6</f>
-        <v>3.4125591226682674E-3</v>
+        <f t="shared" ref="AA72:AA94" si="26">$AF$5/O72*10^6</f>
+        <v>3.421592151669337E-3</v>
       </c>
       <c r="AB72" s="26"/>
       <c r="AC72" s="26"/>
@@ -12599,7 +12882,7 @@
         <v>0.50214000000000003</v>
       </c>
       <c r="I73" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J73" s="30">
@@ -12609,19 +12892,19 @@
         <v>0.49629299999999998</v>
       </c>
       <c r="L73" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.164416298243527E-2</v>
       </c>
       <c r="M73" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N73" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49921650000000001</v>
       </c>
       <c r="O73" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>704.98355697</v>
       </c>
       <c r="P73" s="26"/>
@@ -12645,20 +12928,20 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="X73" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7351415468728062E-2</v>
       </c>
       <c r="Y73" s="47">
         <f t="shared" si="23"/>
-        <v>2.0454377835693417E-2</v>
+        <v>2.0508520483936886E-2</v>
       </c>
       <c r="Z73" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA73" s="47">
-        <f t="shared" si="25"/>
-        <v>3.4090629726155697E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4180867473228137E-3</v>
       </c>
       <c r="AB73" s="26"/>
       <c r="AC73" s="26"/>
@@ -12673,8 +12956,8 @@
       <c r="A74" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>23</v>
+      <c r="B74" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>24</v>
@@ -12695,7 +12978,7 @@
         <v>0.50297000000000003</v>
       </c>
       <c r="I74" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J74" s="30">
@@ -12705,19 +12988,19 @@
         <v>0.48593700000000001</v>
       </c>
       <c r="L74" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3864842833568644E-2</v>
       </c>
       <c r="M74" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N74" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49445349999999999</v>
       </c>
       <c r="O74" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>703.18210049000004</v>
       </c>
       <c r="P74" s="26"/>
@@ -12741,7 +13024,7 @@
         <v>60</v>
       </c>
       <c r="X74" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y74" s="47" t="e">
@@ -12749,28 +13032,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z74" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA74" s="47">
-        <f t="shared" si="25"/>
-        <v>3.4177965262405367E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.426843418625846E-3</v>
       </c>
       <c r="AB74" s="15"/>
-      <c r="AC74" s="15"/>
-      <c r="AD74" s="15"/>
-      <c r="AE74" s="15"/>
-      <c r="AF74" s="15"/>
-      <c r="AG74" s="15"/>
-      <c r="AH74" s="15"/>
-      <c r="AI74" s="15"/>
+      <c r="AC74" s="26"/>
+      <c r="AD74" s="26"/>
+      <c r="AE74" s="26"/>
+      <c r="AF74" s="26"/>
+      <c r="AG74" s="26"/>
+      <c r="AH74" s="26"/>
+      <c r="AI74" s="26"/>
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="21" t="s">
-        <v>23</v>
+      <c r="B75" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>24</v>
@@ -12791,7 +13074,7 @@
         <v>0.50175000000000003</v>
       </c>
       <c r="I75" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J75" s="30">
@@ -12801,19 +13084,19 @@
         <v>0.49046499999999998</v>
       </c>
       <c r="L75" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2491280518186437E-2</v>
       </c>
       <c r="M75" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N75" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49610750000000003</v>
       </c>
       <c r="O75" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>704.33870097500005</v>
       </c>
       <c r="P75" s="26"/>
@@ -12837,20 +13120,20 @@
         <v>0.02</v>
       </c>
       <c r="X75" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.9538214215702548E-2</v>
       </c>
       <c r="Y75" s="47">
         <f t="shared" si="23"/>
-        <v>2.303224290392672E-2</v>
+        <v>2.3093209149677267E-2</v>
       </c>
       <c r="Z75" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA75" s="47">
-        <f t="shared" si="25"/>
-        <v>3.41218413391507E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4212161703225576E-3</v>
       </c>
       <c r="AB75" s="26"/>
       <c r="AC75" s="26"/>
@@ -12887,7 +13170,7 @@
         <v>0.50495000000000001</v>
       </c>
       <c r="I76" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J76" s="30">
@@ -12897,19 +13180,19 @@
         <v>0.48790800000000001</v>
       </c>
       <c r="L76" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3749876225368854E-2</v>
       </c>
       <c r="M76" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N76" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49642900000000001</v>
       </c>
       <c r="O76" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>697.5323879</v>
       </c>
       <c r="P76" s="26"/>
@@ -12933,7 +13216,7 @@
         <v>62</v>
       </c>
       <c r="X76" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y76" s="47" t="e">
@@ -12941,12 +13224,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z76" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA76" s="47">
-        <f t="shared" si="25"/>
-        <v>3.4454792093665389E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4545993776924303E-3</v>
       </c>
       <c r="AB76" s="26"/>
       <c r="AC76" s="26"/>
@@ -12983,7 +13266,7 @@
         <v>0.50165999999999999</v>
       </c>
       <c r="I77" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J77" s="30">
@@ -12993,19 +13276,19 @@
         <v>0.48913499999999999</v>
       </c>
       <c r="L77" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4967109197464435E-2</v>
       </c>
       <c r="M77" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N77" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49539749999999999</v>
       </c>
       <c r="O77" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>693.165135975</v>
       </c>
       <c r="P77" s="26"/>
@@ -13029,20 +13312,20 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="X77" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.0588465317819445E-2</v>
       </c>
       <c r="Y77" s="47">
         <f t="shared" si="23"/>
-        <v>2.4270310939573107E-2</v>
+        <v>2.4334554345973265E-2</v>
       </c>
       <c r="Z77" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA77" s="47">
-        <f t="shared" si="25"/>
-        <v>3.4671872770818723E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4763649065676092E-3</v>
       </c>
       <c r="AB77" s="26"/>
       <c r="AC77" s="26"/>
@@ -13079,7 +13362,7 @@
         <v>0.50061999999999995</v>
       </c>
       <c r="I78" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J78" s="15">
@@ -13089,19 +13372,19 @@
         <v>0.49057000000000001</v>
       </c>
       <c r="L78" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0075106867484219E-2</v>
       </c>
       <c r="M78" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N78" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49559500000000001</v>
       </c>
       <c r="O78" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>712.23444235000011</v>
       </c>
       <c r="P78" s="15"/>
@@ -13125,20 +13408,20 @@
         <v>1.4E-2</v>
       </c>
       <c r="X78" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4312308172067004E-2</v>
       </c>
       <c r="Y78" s="47">
         <f t="shared" si="23"/>
-        <v>1.6871785450584972E-2</v>
+        <v>1.6916444992528906E-2</v>
       </c>
       <c r="Z78" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA78" s="47">
-        <f t="shared" si="25"/>
-        <v>3.3743570901169934E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.3832889985057806E-3</v>
       </c>
       <c r="AB78" s="26"/>
       <c r="AC78" s="26"/>
@@ -13175,7 +13458,7 @@
         <v>0.50368999999999997</v>
       </c>
       <c r="I79" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J79" s="30">
@@ -13185,19 +13468,19 @@
         <v>0.49025000000000002</v>
       </c>
       <c r="L79" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6683078877881142E-2</v>
       </c>
       <c r="M79" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N79" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49697000000000002</v>
       </c>
       <c r="O79" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>714.14589000000001</v>
       </c>
       <c r="P79" s="26"/>
@@ -13221,20 +13504,20 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="X79" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.2124700859083447E-2</v>
       </c>
       <c r="Y79" s="47">
         <f t="shared" si="23"/>
-        <v>2.60812722563756E-2</v>
+        <v>2.6150309269422991E-2</v>
       </c>
       <c r="Z79" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA79" s="47">
-        <f t="shared" si="25"/>
-        <v>3.3653254524355601E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.3742334541190942E-3</v>
       </c>
       <c r="AB79" s="26"/>
       <c r="AC79" s="26"/>
@@ -13271,7 +13554,7 @@
         <v>0.50178</v>
       </c>
       <c r="I80" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J80" s="30">
@@ -13281,19 +13564,19 @@
         <v>0.49214999999999998</v>
       </c>
       <c r="L80" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9191677627645638E-2</v>
       </c>
       <c r="M80" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N80" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49696499999999999</v>
       </c>
       <c r="O80" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>714.69530579999991</v>
       </c>
       <c r="P80" s="26"/>
@@ -13317,20 +13600,20 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="X80" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.2107692687736012E-2</v>
       </c>
       <c r="Y80" s="47">
         <f t="shared" si="23"/>
-        <v>2.6061222505180278E-2</v>
+        <v>2.6130206446624366E-2</v>
       </c>
       <c r="Z80" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA80" s="47">
-        <f t="shared" si="25"/>
-        <v>3.3627383877651968E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.3716395414999174E-3</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="15"/>
@@ -13367,7 +13650,7 @@
         <v>0.50470999999999999</v>
       </c>
       <c r="I81" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J81" s="30">
@@ -13377,19 +13660,19 @@
         <v>0.49329000000000001</v>
       </c>
       <c r="L81" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2626855025658272E-2</v>
       </c>
       <c r="M81" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N81" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.499</v>
       </c>
       <c r="O81" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>714.43326999999999</v>
       </c>
       <c r="P81" s="26"/>
@@ -13413,7 +13696,7 @@
         <v>60</v>
       </c>
       <c r="X81" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y81" s="47" t="e">
@@ -13421,12 +13704,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z81" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA81" s="47">
-        <f t="shared" si="25"/>
-        <v>3.3639717539599547E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.3728761724095726E-3</v>
       </c>
       <c r="AB81" s="26"/>
       <c r="AC81" s="26"/>
@@ -13463,7 +13746,7 @@
         <v>0.50212000000000001</v>
       </c>
       <c r="I82" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J82" s="30">
@@ -13473,19 +13756,19 @@
         <v>0.48442000000000002</v>
       </c>
       <c r="L82" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.52505377200669E-2</v>
       </c>
       <c r="M82" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N82" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49326999999999999</v>
       </c>
       <c r="O82" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>700.81828519999999</v>
       </c>
       <c r="P82" s="26"/>
@@ -13509,20 +13792,20 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="X82" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.7999992078292478E-3</v>
       </c>
       <c r="Y82" s="47">
         <f t="shared" si="23"/>
-        <v>5.6583854835887716E-3</v>
+        <v>5.6733632050978214E-3</v>
       </c>
       <c r="Z82" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA82" s="47">
-        <f t="shared" si="25"/>
-        <v>3.4293245355083465E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4384019424835281E-3</v>
       </c>
       <c r="AB82" s="26"/>
       <c r="AC82" s="26"/>
@@ -13559,7 +13842,7 @@
         <v>0.50205</v>
       </c>
       <c r="I83" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J83" s="30">
@@ -13569,19 +13852,19 @@
         <v>0.48209999999999997</v>
       </c>
       <c r="L83" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9737077980280894E-2</v>
       </c>
       <c r="M83" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N83" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49207499999999998</v>
       </c>
       <c r="O83" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>680.16082725000001</v>
       </c>
       <c r="P83" s="26"/>
@@ -13605,20 +13888,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="X83" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.5478271191403622E-2</v>
       </c>
       <c r="Y83" s="47">
         <f t="shared" si="23"/>
-        <v>3.0034563260183098E-2</v>
+        <v>3.0114064617144661E-2</v>
       </c>
       <c r="Z83" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA83" s="47">
-        <f t="shared" si="25"/>
-        <v>3.5334780306097756E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.5428311314287834E-3</v>
       </c>
       <c r="AB83" s="26"/>
       <c r="AC83" s="26"/>
@@ -13655,7 +13938,7 @@
         <v>0.50043000000000004</v>
       </c>
       <c r="I84" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J84" s="30">
@@ -13665,19 +13948,19 @@
         <v>0.48493000000000003</v>
       </c>
       <c r="L84" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0973362907899232E-2</v>
       </c>
       <c r="M84" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N84" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49268000000000001</v>
       </c>
       <c r="O84" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>706.99580000000003</v>
       </c>
       <c r="P84" s="26"/>
@@ -13701,20 +13984,20 @@
         <v>1.6E-2</v>
       </c>
       <c r="X84" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.586019423685521E-2</v>
       </c>
       <c r="Y84" s="47">
         <f t="shared" si="23"/>
-        <v>1.8696480759901053E-2</v>
+        <v>1.8745970262310053E-2</v>
       </c>
       <c r="Z84" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA84" s="47">
-        <f t="shared" si="25"/>
-        <v>3.3993601381638277E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4083582295109179E-3</v>
       </c>
       <c r="AB84" s="26"/>
       <c r="AC84" s="26"/>
@@ -13751,7 +14034,7 @@
         <v>0.50063999999999997</v>
       </c>
       <c r="I85" s="26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>PASS</v>
       </c>
       <c r="J85" s="30">
@@ -13761,19 +14044,19 @@
         <v>0.49057000000000001</v>
       </c>
       <c r="L85" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0114253755193288E-2</v>
       </c>
       <c r="M85" s="26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>PASS</v>
       </c>
       <c r="N85" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49560499999999996</v>
       </c>
       <c r="O85" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>710.42003119999993</v>
       </c>
       <c r="P85" s="26"/>
@@ -13797,20 +14080,20 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="X85" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.72186341296512E-2</v>
       </c>
       <c r="Y85" s="47">
         <f t="shared" si="23"/>
-        <v>2.0297851142876779E-2</v>
+        <v>2.0351579465652223E-2</v>
       </c>
       <c r="Z85" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA85" s="47">
-        <f t="shared" si="25"/>
-        <v>3.3829751904794632E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.3919299109420368E-3</v>
       </c>
       <c r="AB85" s="26"/>
       <c r="AC85" s="26"/>
@@ -13864,7 +14147,7 @@
         <v>60</v>
       </c>
       <c r="X86" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y86" s="47" t="e">
@@ -13872,21 +14155,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z86" s="47" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA86" s="47" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AA86" s="47" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AB86" s="26"/>
-      <c r="AC86" s="26"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="26"/>
-      <c r="AG86" s="26"/>
-      <c r="AH86" s="26"/>
-      <c r="AI86" s="26"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="21" t="s">
@@ -13914,7 +14197,7 @@
         <v>0.50039999999999996</v>
       </c>
       <c r="I87" s="26" t="str">
-        <f t="shared" ref="I87:I94" si="26">IF(ABS(H87-0.5)&lt;=0.005, "PASS", "FAIL")</f>
+        <f t="shared" ref="I87:I94" si="27">IF(ABS(H87-0.5)&lt;=0.005, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="J87" s="30">
@@ -13924,19 +14207,19 @@
         <v>0.49092000000000002</v>
       </c>
       <c r="L87" s="31">
-        <f t="shared" ref="L87:L94" si="27">ABS(K87-H87)/H87</f>
+        <f t="shared" ref="L87:L94" si="28">ABS(K87-H87)/H87</f>
         <v>1.8944844124700107E-2</v>
       </c>
       <c r="M87" s="26" t="str">
-        <f t="shared" ref="M87:M94" si="28">IF(((ABS(K87-H87)/H87))&lt;=0.05, "PASS", "FAIL")</f>
+        <f t="shared" ref="M87:M94" si="29">IF(((ABS(K87-H87)/H87))&lt;=0.05, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="N87" s="29">
-        <f t="shared" ref="N87:N94" si="29">AVERAGE(H87,K87)</f>
+        <f t="shared" ref="N87:N94" si="30">AVERAGE(H87,K87)</f>
         <v>0.49565999999999999</v>
       </c>
       <c r="O87" s="29">
-        <f t="shared" ref="O87:O94" si="30">J87*N87</f>
+        <f t="shared" ref="O87:O94" si="31">J87*N87</f>
         <v>689.57706180000002</v>
       </c>
       <c r="P87" s="26"/>
@@ -13960,7 +14243,7 @@
         <v>62</v>
       </c>
       <c r="X87" s="47" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y87" s="47" t="e">
@@ -13968,12 +14251,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z87" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA87" s="47">
-        <f t="shared" si="25"/>
-        <v>3.4852280818271934E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4944534652438099E-3</v>
       </c>
       <c r="AB87" s="26"/>
       <c r="AC87" s="26"/>
@@ -14010,7 +14293,7 @@
         <v>0.50336000000000003</v>
       </c>
       <c r="I88" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J88" s="30">
@@ -14020,19 +14303,19 @@
         <v>0.48497000000000001</v>
       </c>
       <c r="L88" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.6534488239033727E-2</v>
       </c>
       <c r="M88" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N88" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49416500000000002</v>
       </c>
       <c r="O88" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>682.99038814999994</v>
       </c>
       <c r="P88" s="26"/>
@@ -14056,20 +14339,20 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="X88" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.6118973650930449E-2</v>
       </c>
       <c r="Y88" s="47">
         <f t="shared" si="23"/>
-        <v>3.0789842863224049E-2</v>
+        <v>3.0871343441975764E-2</v>
       </c>
       <c r="Z88" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA88" s="47">
-        <f t="shared" si="25"/>
-        <v>3.5188391843684629E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.5281535362258012E-3</v>
       </c>
       <c r="AB88" s="26"/>
       <c r="AC88" s="26"/>
@@ -14106,7 +14389,7 @@
         <v>0.50356999999999996</v>
       </c>
       <c r="I89" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J89" s="30">
@@ -14116,19 +14399,19 @@
         <v>0.48598000000000002</v>
       </c>
       <c r="L89" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.493059554778867E-2</v>
       </c>
       <c r="M89" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N89" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49477499999999996</v>
       </c>
       <c r="O89" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>683.23974524999994</v>
       </c>
       <c r="P89" s="26"/>
@@ -14152,20 +14435,20 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="X89" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.088755295744834E-2</v>
       </c>
       <c r="Y89" s="47">
         <f t="shared" si="23"/>
-        <v>2.4622884572426337E-2</v>
+        <v>2.4688061239683257E-2</v>
       </c>
       <c r="Z89" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA89" s="47">
-        <f t="shared" si="25"/>
-        <v>3.5175549389180475E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.5268658913833223E-3</v>
       </c>
       <c r="AB89" s="26"/>
       <c r="AC89" s="26"/>
@@ -14202,7 +14485,7 @@
         <v>0.50207000000000002</v>
       </c>
       <c r="I90" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J90" s="30">
@@ -14212,19 +14495,19 @@
         <v>0.49231000000000003</v>
       </c>
       <c r="L90" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9439520385603582E-2</v>
       </c>
       <c r="M90" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N90" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49719000000000002</v>
       </c>
       <c r="O90" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>676.99876350000011</v>
       </c>
       <c r="P90" s="26"/>
@@ -14248,20 +14531,20 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="X90" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.3878743364596044E-2</v>
       </c>
       <c r="Y90" s="47">
         <f t="shared" si="23"/>
-        <v>3.9937296102836993E-2</v>
+        <v>4.0043009950115102E-2</v>
       </c>
       <c r="Z90" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA90" s="47">
-        <f t="shared" si="25"/>
-        <v>3.5499818758077326E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.5593786622324527E-3</v>
       </c>
       <c r="AB90" s="26"/>
       <c r="AC90" s="26"/>
@@ -14298,7 +14581,7 @@
         <v>0.50095999999999996</v>
       </c>
       <c r="I91" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J91" s="30">
@@ -14308,19 +14591,19 @@
         <v>0.48849999999999999</v>
       </c>
       <c r="L91" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.4872245289044977E-2</v>
       </c>
       <c r="M91" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N91" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49473</v>
       </c>
       <c r="O91" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>676.45422359999998</v>
       </c>
       <c r="P91" s="26"/>
@@ -14344,7 +14627,7 @@
         <v>62</v>
       </c>
       <c r="X91" s="47" t="e">
-        <f t="shared" ref="X91:X94" si="31">U91/(10^6)*(1/$AF$3)*$AF$23*(1/O91)*10^6</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y91" s="47" t="e">
@@ -14352,12 +14635,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z91" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA91" s="47">
-        <f t="shared" si="25"/>
-        <v>3.552839581042193E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.5622439318001103E-3</v>
       </c>
       <c r="AB91" s="26"/>
       <c r="AC91" s="26"/>
@@ -14394,7 +14677,7 @@
         <v>0.50158000000000003</v>
       </c>
       <c r="I92" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J92" s="30">
@@ -14404,19 +14687,19 @@
         <v>0.48723</v>
       </c>
       <c r="L92" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.8609593683958746E-2</v>
       </c>
       <c r="M92" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N92" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49440499999999998</v>
       </c>
       <c r="O92" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>672.92970144999992</v>
       </c>
       <c r="P92" s="26"/>
@@ -14440,20 +14723,20 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="X92" s="47">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>3.3326187530374592E-2</v>
       </c>
       <c r="Y92" s="47">
         <f t="shared" si="23"/>
-        <v>3.9285926430498046E-2</v>
+        <v>3.9389916105115941E-2</v>
       </c>
       <c r="Z92" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA92" s="47">
-        <f t="shared" si="25"/>
-        <v>3.5714478573180036E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.5809014641014479E-3</v>
       </c>
       <c r="AB92" s="26"/>
       <c r="AC92" s="26"/>
@@ -14490,7 +14773,7 @@
         <v>0.50087000000000004</v>
       </c>
       <c r="I93" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J93" s="30">
@@ -14500,19 +14783,19 @@
         <v>0.48376999999999998</v>
       </c>
       <c r="L93" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.4140595364066641E-2</v>
       </c>
       <c r="M93" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N93" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.49231999999999998</v>
       </c>
       <c r="O93" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>715.34096</v>
       </c>
       <c r="P93" s="26"/>
@@ -14536,20 +14819,20 @@
         <v>2.4E-2</v>
       </c>
       <c r="X93" s="47">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>2.4225261769499306E-2</v>
       </c>
       <c r="Y93" s="47">
         <f t="shared" si="23"/>
-        <v>2.855747753230654E-2</v>
+        <v>2.8633069049837534E-2</v>
       </c>
       <c r="Z93" s="47">
-        <f t="shared" ref="Z93:Z94" si="32">AF95/O93*10^6</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA93" s="47">
-        <f t="shared" si="25"/>
-        <v>3.359703239094887E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.3685963588044156E-3</v>
       </c>
       <c r="AB93" s="26"/>
       <c r="AC93" s="26"/>
@@ -14586,7 +14869,7 @@
         <v>0.50083999999999995</v>
       </c>
       <c r="I94" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>PASS</v>
       </c>
       <c r="J94" s="30">
@@ -14596,19 +14879,19 @@
         <v>0.47777999999999998</v>
       </c>
       <c r="L94" s="31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.6042648350770647E-2</v>
       </c>
       <c r="M94" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>PASS</v>
       </c>
       <c r="N94" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.48930999999999997</v>
       </c>
       <c r="O94" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>702.77638059999992</v>
       </c>
       <c r="P94" s="26"/>
@@ -14632,20 +14915,20 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="X94" s="47">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>2.6108865351659898E-2</v>
       </c>
       <c r="Y94" s="47">
         <f t="shared" si="23"/>
-        <v>3.0777926891704104E-2</v>
+        <v>3.0859395928931572E-2</v>
       </c>
       <c r="Z94" s="47">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA94" s="47">
-        <f t="shared" si="25"/>
-        <v>3.419769654633789E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.4288217698812845E-3</v>
       </c>
       <c r="AB94" s="26"/>
       <c r="AC94" s="26"/>
@@ -14655,6 +14938,60 @@
       <c r="AG94" s="26"/>
       <c r="AH94" s="26"/>
       <c r="AI94" s="26"/>
+    </row>
+    <row r="95" spans="1:35">
+      <c r="AC95" s="26"/>
+      <c r="AD95" s="26"/>
+      <c r="AE95" s="26"/>
+      <c r="AF95" s="26"/>
+      <c r="AG95" s="26"/>
+      <c r="AH95" s="26"/>
+      <c r="AI95" s="26"/>
+    </row>
+    <row r="96" spans="1:35">
+      <c r="AC96" s="26"/>
+      <c r="AD96" s="26"/>
+      <c r="AE96" s="26"/>
+      <c r="AF96" s="26"/>
+      <c r="AG96" s="26"/>
+      <c r="AH96" s="26"/>
+      <c r="AI96" s="26"/>
+    </row>
+    <row r="97" spans="29:35">
+      <c r="AC97" s="26"/>
+      <c r="AD97" s="26"/>
+      <c r="AE97" s="26"/>
+      <c r="AF97" s="26"/>
+      <c r="AG97" s="26"/>
+      <c r="AH97" s="26"/>
+      <c r="AI97" s="26"/>
+    </row>
+    <row r="98" spans="29:35">
+      <c r="AC98" s="26"/>
+      <c r="AD98" s="26"/>
+      <c r="AE98" s="26"/>
+      <c r="AF98" s="26"/>
+      <c r="AG98" s="26"/>
+      <c r="AH98" s="26"/>
+      <c r="AI98" s="26"/>
+    </row>
+    <row r="99" spans="29:35">
+      <c r="AC99" s="26"/>
+      <c r="AD99" s="26"/>
+      <c r="AE99" s="26"/>
+      <c r="AF99" s="26"/>
+      <c r="AG99" s="26"/>
+      <c r="AH99" s="26"/>
+      <c r="AI99" s="26"/>
+    </row>
+    <row r="100" spans="29:35">
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="26"/>
+      <c r="AE100" s="26"/>
+      <c r="AF100" s="26"/>
+      <c r="AG100" s="26"/>
+      <c r="AH100" s="26"/>
+      <c r="AI100" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1 I1:I23 M4:M23 I28:I94 M28:M94">
@@ -14680,9 +15017,9 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -16542,7 +16879,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
@@ -18142,13 +18479,13 @@
       <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -18777,7 +19114,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
